--- a/Code/Results/Cases/Case_6_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_60/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.367873928818597</v>
+        <v>3.367873928818767</v>
       </c>
       <c r="C2">
-        <v>0.4774521998713794</v>
+        <v>0.4774521998716352</v>
       </c>
       <c r="D2">
-        <v>0.1255088615336319</v>
+        <v>0.1255088615332198</v>
       </c>
       <c r="E2">
-        <v>0.01500764944751065</v>
+        <v>0.0150076494475101</v>
       </c>
       <c r="F2">
         <v>7.242150058995236</v>
       </c>
       <c r="G2">
-        <v>0.0008488683517511308</v>
+        <v>0.0008488683517499148</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1295531710077213</v>
+        <v>0.1295531710077356</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1799128880632708</v>
+        <v>0.1799128880633702</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.972819489692711</v>
+        <v>2.972819489692768</v>
       </c>
       <c r="C3">
-        <v>0.4081948005731704</v>
+        <v>0.4081948005733125</v>
       </c>
       <c r="D3">
-        <v>0.1091333485443613</v>
+        <v>0.1091333485441766</v>
       </c>
       <c r="E3">
-        <v>0.01503452905445335</v>
+        <v>0.01503452905445746</v>
       </c>
       <c r="F3">
-        <v>6.577042659787963</v>
+        <v>6.577042659787992</v>
       </c>
       <c r="G3">
-        <v>0.0008611957438271761</v>
+        <v>0.0008611957438291693</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1233400085139031</v>
+        <v>0.1233400085140381</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1642261006246315</v>
+        <v>0.1642261006246812</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.738877334033987</v>
+        <v>2.738877334034157</v>
       </c>
       <c r="C4">
         <v>0.366905453896095</v>
       </c>
       <c r="D4">
-        <v>0.0993267923600456</v>
+        <v>0.09932679235990349</v>
       </c>
       <c r="E4">
-        <v>0.0150582838499736</v>
+        <v>0.01505828384994951</v>
       </c>
       <c r="F4">
         <v>6.18096447401436</v>
       </c>
       <c r="G4">
-        <v>0.0008689230892274828</v>
+        <v>0.0008689230894023456</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1196552705079235</v>
+        <v>0.1196552705078382</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1550901125312407</v>
+        <v>0.1550901125311981</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.645463199161043</v>
+        <v>2.645463199160986</v>
       </c>
       <c r="C5">
-        <v>0.3503450918909721</v>
+        <v>0.3503450918911426</v>
       </c>
       <c r="D5">
-        <v>0.09538265046369077</v>
+        <v>0.09538265046381866</v>
       </c>
       <c r="E5">
-        <v>0.01506967932459236</v>
+        <v>0.01506967932453201</v>
       </c>
       <c r="F5">
         <v>6.022248585296637</v>
       </c>
       <c r="G5">
-        <v>0.0008721154856493213</v>
+        <v>0.0008721154858766234</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1181821748990188</v>
+        <v>0.1181821748990792</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1514803030729368</v>
+        <v>0.1514803030728444</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.630061002102707</v>
+        <v>2.63006100210248</v>
       </c>
       <c r="C6">
-        <v>0.3476100609942137</v>
+        <v>0.3476100609942705</v>
       </c>
       <c r="D6">
-        <v>0.09473059607719847</v>
+        <v>0.094730596077369</v>
       </c>
       <c r="E6">
-        <v>0.01507167226395217</v>
+        <v>0.01507167226403539</v>
       </c>
       <c r="F6">
-        <v>5.99604534354097</v>
+        <v>5.996045343540885</v>
       </c>
       <c r="G6">
-        <v>0.0008726483039052672</v>
+        <v>0.0008726483038033792</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1179391714102707</v>
+        <v>0.1179391714103524</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1508874211720652</v>
+        <v>0.1508874211719444</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.737610056904089</v>
+        <v>2.737610056904202</v>
       </c>
       <c r="C7">
-        <v>0.3666810965106606</v>
+        <v>0.3666810965113427</v>
       </c>
       <c r="D7">
-        <v>0.09927340208506052</v>
+        <v>0.09927340208429314</v>
       </c>
       <c r="E7">
-        <v>0.0150584307199666</v>
+        <v>0.01505843072001817</v>
       </c>
       <c r="F7">
-        <v>6.178813590656915</v>
+        <v>6.178813590656972</v>
       </c>
       <c r="G7">
-        <v>0.0008689659626551957</v>
+        <v>0.0008689659626980503</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1196352938855689</v>
+        <v>0.1196352938854801</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1550409853631365</v>
+        <v>0.155040985363037</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.229710426096062</v>
+        <v>3.229710426096347</v>
       </c>
       <c r="C8">
-        <v>0.4532870400408626</v>
+        <v>0.4532870400408342</v>
       </c>
       <c r="D8">
-        <v>0.1198045549316902</v>
+        <v>0.1198045549319033</v>
       </c>
       <c r="E8">
-        <v>0.01501534244774838</v>
+        <v>0.01501534244770697</v>
       </c>
       <c r="F8">
-        <v>7.010010916305532</v>
+        <v>7.010010916305617</v>
       </c>
       <c r="G8">
-        <v>0.0008530883014896841</v>
+        <v>0.0008530883014267338</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1273811387944761</v>
+        <v>0.1273811387943269</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.174393849982863</v>
+        <v>0.1743938499828985</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.276101126608978</v>
+        <v>4.276101126609035</v>
       </c>
       <c r="C9">
-        <v>0.6352811125017865</v>
+        <v>0.6352811125021844</v>
       </c>
       <c r="D9">
-        <v>0.1625656859299625</v>
+        <v>0.1625656859301472</v>
       </c>
       <c r="E9">
-        <v>0.01499425621937989</v>
+        <v>0.01499425621933881</v>
       </c>
       <c r="F9">
-        <v>8.758459336930201</v>
+        <v>8.758459336930173</v>
       </c>
       <c r="G9">
-        <v>0.0008230204190128989</v>
+        <v>0.0008230204191219891</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1438241437014369</v>
+        <v>0.1438241437017069</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2168771379205339</v>
+        <v>0.2168771379204628</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.115839996942896</v>
+        <v>5.115839996942952</v>
       </c>
       <c r="C10">
-        <v>0.780314683909836</v>
+        <v>0.7803146839088981</v>
       </c>
       <c r="D10">
-        <v>0.1963754710723151</v>
+        <v>0.1963754710725425</v>
       </c>
       <c r="E10">
-        <v>0.01502762489539755</v>
+        <v>0.01502762489539189</v>
       </c>
       <c r="F10">
-        <v>10.14937752792036</v>
+        <v>10.14937752792025</v>
       </c>
       <c r="G10">
-        <v>0.0008012747294980547</v>
+        <v>0.0008012747294942518</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1570297073343809</v>
+        <v>0.1570297073345657</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2518398902017509</v>
+        <v>0.2518398902017225</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.519202966392697</v>
+        <v>5.519202966392925</v>
       </c>
       <c r="C11">
-        <v>0.8498495250508995</v>
+        <v>0.8498495250504732</v>
       </c>
       <c r="D11">
-        <v>0.2125164785385323</v>
+        <v>0.2125164785385465</v>
       </c>
       <c r="E11">
-        <v>0.01505645905530018</v>
+        <v>0.01505645905537012</v>
       </c>
       <c r="F11">
         <v>10.81463497193522</v>
       </c>
       <c r="G11">
-        <v>0.0007913728712575396</v>
+        <v>0.0007913728712514613</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1633811861909322</v>
+        <v>0.1633811861908754</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2688348007579293</v>
+        <v>0.2688348007580714</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.675632186239227</v>
+        <v>5.675632186238829</v>
       </c>
       <c r="C12">
-        <v>0.8768066304431841</v>
+        <v>0.8768066304427293</v>
       </c>
       <c r="D12">
-        <v>0.2187628474407575</v>
+        <v>0.2187628474409706</v>
       </c>
       <c r="E12">
-        <v>0.01506967550381411</v>
+        <v>0.01506967550379645</v>
       </c>
       <c r="F12">
-        <v>11.07219375060589</v>
+        <v>11.07219375060595</v>
       </c>
       <c r="G12">
-        <v>0.0007876132813064916</v>
+        <v>0.0007876132811894144</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1658460909005015</v>
+        <v>0.1658460909003026</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2754556045548213</v>
+        <v>0.2754556045548497</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.641767416058713</v>
+        <v>5.641767416058883</v>
       </c>
       <c r="C13">
-        <v>0.8709710340087611</v>
+        <v>0.8709710340083632</v>
       </c>
       <c r="D13">
-        <v>0.2174111690196412</v>
+        <v>0.2174111690197975</v>
       </c>
       <c r="E13">
-        <v>0.01506672070521986</v>
+        <v>0.01506672070527415</v>
       </c>
       <c r="F13">
-        <v>11.01645565069873</v>
+        <v>11.0164556506985</v>
       </c>
       <c r="G13">
-        <v>0.000788423574414443</v>
+        <v>0.0007884235743391385</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1653123880283829</v>
+        <v>0.1653123880281981</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2740209450777797</v>
+        <v>0.2740209450774955</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.531994707023784</v>
+        <v>5.5319947070235</v>
       </c>
       <c r="C14">
-        <v>0.8520540238317551</v>
+        <v>0.8520540238309309</v>
       </c>
       <c r="D14">
-        <v>0.2130275241929098</v>
+        <v>0.2130275241930519</v>
       </c>
       <c r="E14">
-        <v>0.01505749812523083</v>
+        <v>0.01505749812510249</v>
       </c>
       <c r="F14">
-        <v>10.83570526477615</v>
+        <v>10.83570526477598</v>
       </c>
       <c r="G14">
-        <v>0.0007910638225058252</v>
+        <v>0.0007910638224158928</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1635827123579858</v>
+        <v>0.163582712358135</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2693756034745576</v>
+        <v>0.2693756034743586</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.465255818470723</v>
+        <v>5.465255818470496</v>
       </c>
       <c r="C15">
-        <v>0.8405520851677863</v>
+        <v>0.8405520851673316</v>
       </c>
       <c r="D15">
-        <v>0.2103606973029457</v>
+        <v>0.2103606973029883</v>
       </c>
       <c r="E15">
-        <v>0.01505215955212313</v>
+        <v>0.01505215955207606</v>
       </c>
       <c r="F15">
-        <v>10.72575671006956</v>
+        <v>10.72575671006962</v>
       </c>
       <c r="G15">
-        <v>0.0007926794691522205</v>
+        <v>0.0007926794690374982</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1625313534452815</v>
+        <v>0.1625313534454875</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2665552560055602</v>
+        <v>0.266555256005617</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.089958839850851</v>
+        <v>5.089958839850794</v>
       </c>
       <c r="C16">
-        <v>0.7758512628685139</v>
+        <v>0.7758512628680592</v>
       </c>
       <c r="D16">
-        <v>0.195337934406254</v>
+        <v>0.1953379344067088</v>
       </c>
       <c r="E16">
-        <v>0.01502604204545288</v>
+        <v>0.01502604204545133</v>
       </c>
       <c r="F16">
-        <v>10.10663411926404</v>
+        <v>10.10663411926416</v>
       </c>
       <c r="G16">
-        <v>0.000801920947846673</v>
+        <v>0.0008019209476097386</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1566223813567049</v>
+        <v>0.1566223813568186</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.865597587998877</v>
+        <v>4.865597587999048</v>
       </c>
       <c r="C17">
-        <v>0.7371450733346023</v>
+        <v>0.737145073335455</v>
       </c>
       <c r="D17">
-        <v>0.1863329714974213</v>
+        <v>0.1863329714978619</v>
       </c>
       <c r="E17">
-        <v>0.01501373069996981</v>
+        <v>0.01501373069984535</v>
       </c>
       <c r="F17">
-        <v>9.735782909351599</v>
+        <v>9.735782909351713</v>
       </c>
       <c r="G17">
-        <v>0.0008075822072741054</v>
+        <v>0.0008075822073859726</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1530922761147764</v>
+        <v>0.1530922761148261</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2413573810343905</v>
+        <v>0.2413573810344616</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.738518737457753</v>
+        <v>4.738518737457866</v>
       </c>
       <c r="C18">
-        <v>0.7152092141694766</v>
+        <v>0.7152092141699029</v>
       </c>
       <c r="D18">
-        <v>0.1812234367569516</v>
+        <v>0.1812234367571648</v>
       </c>
       <c r="E18">
-        <v>0.01500791070249763</v>
+        <v>0.01500791070231577</v>
       </c>
       <c r="F18">
-        <v>9.525473076441187</v>
+        <v>9.525473076441244</v>
       </c>
       <c r="G18">
-        <v>0.0008108381054499544</v>
+        <v>0.0008108381054466106</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1510935365604738</v>
+        <v>0.1510935365604382</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2360536187010922</v>
+        <v>0.2360536187012912</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.695813193433594</v>
+        <v>4.695813193434162</v>
       </c>
       <c r="C19">
-        <v>0.7078351397680933</v>
+        <v>0.707835139767667</v>
       </c>
       <c r="D19">
-        <v>0.1795047592947867</v>
+        <v>0.1795047592945593</v>
       </c>
       <c r="E19">
-        <v>0.01500614783232712</v>
+        <v>0.01500614783215704</v>
       </c>
       <c r="F19">
-        <v>9.454753490764119</v>
+        <v>9.454753490764176</v>
       </c>
       <c r="G19">
-        <v>0.0008119406797981123</v>
+        <v>0.000811940679798983</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1504219579259072</v>
+        <v>0.1504219579258077</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2342743585840878</v>
+        <v>0.2342743585842015</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>4.889273500057186</v>
       </c>
       <c r="C20">
-        <v>0.7412308237243508</v>
+        <v>0.7412308237253171</v>
       </c>
       <c r="D20">
-        <v>0.1872841684058102</v>
+        <v>0.1872841684054691</v>
       </c>
       <c r="E20">
-        <v>0.01501490856918275</v>
+        <v>0.01501490856917098</v>
       </c>
       <c r="F20">
-        <v>9.774944377720544</v>
+        <v>9.774944377720402</v>
       </c>
       <c r="G20">
-        <v>0.0008069796458251951</v>
+        <v>0.0008069796458457499</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1534647146285053</v>
+        <v>0.1534647146286261</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2423470086930593</v>
+        <v>0.2423470086929314</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.564132129406801</v>
+        <v>5.564132129406687</v>
       </c>
       <c r="C21">
-        <v>0.8575923991735124</v>
+        <v>0.8575923991731713</v>
       </c>
       <c r="D21">
-        <v>0.2143112458073801</v>
+        <v>0.2143112458074512</v>
       </c>
       <c r="E21">
-        <v>0.01506014159122526</v>
+        <v>0.0150601415913828</v>
       </c>
       <c r="F21">
-        <v>10.88863435375293</v>
+        <v>10.88863435375276</v>
       </c>
       <c r="G21">
-        <v>0.0007902886648110377</v>
+        <v>0.0007902886649489274</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1640890472009886</v>
+        <v>0.1640890472009531</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2707347717956026</v>
+        <v>0.2707347717955457</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.027045450610899</v>
+        <v>6.027045450610785</v>
       </c>
       <c r="C22">
-        <v>0.937359990311819</v>
+        <v>0.9373599903119043</v>
       </c>
       <c r="D22">
-        <v>0.2327719802724033</v>
+        <v>0.2327719802718207</v>
       </c>
       <c r="E22">
-        <v>0.01510331565282197</v>
+        <v>0.01510331565280321</v>
       </c>
       <c r="F22">
-        <v>11.64996182926637</v>
+        <v>11.6499618292662</v>
       </c>
       <c r="G22">
-        <v>0.0007793167554810145</v>
+        <v>0.0007793167553873646</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1713871573987404</v>
+        <v>0.1713871573987262</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2903848857134221</v>
+        <v>0.2903848857133653</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.777744368877393</v>
+        <v>5.777744368877507</v>
       </c>
       <c r="C23">
-        <v>0.8944021411188317</v>
+        <v>0.894402141119258</v>
       </c>
       <c r="D23">
-        <v>0.2228367160194153</v>
+        <v>0.222836716019188</v>
       </c>
       <c r="E23">
-        <v>0.01507889416012453</v>
+        <v>0.01507889416017716</v>
       </c>
       <c r="F23">
-        <v>11.24019534420927</v>
+        <v>11.24019534420933</v>
       </c>
       <c r="G23">
-        <v>0.0007851817628911549</v>
+        <v>0.0007851817629007662</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1674556499658877</v>
+        <v>0.1674556499657314</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2797859170067909</v>
+        <v>0.2797859170069756</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.878563717363022</v>
+        <v>4.878563717363363</v>
       </c>
       <c r="C24">
         <v>0.7393826773430874</v>
       </c>
       <c r="D24">
-        <v>0.1868539237081137</v>
+        <v>0.1868539237083411</v>
       </c>
       <c r="E24">
-        <v>0.01501437215988799</v>
+        <v>0.01501437215982604</v>
       </c>
       <c r="F24">
         <v>9.757230523115027</v>
       </c>
       <c r="G24">
-        <v>0.0008072520598908247</v>
+        <v>0.0008072520595434911</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1532962400925868</v>
+        <v>0.1532962400925655</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2418992942921534</v>
+        <v>0.241899294292125</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.982314369463325</v>
+        <v>3.982314369463381</v>
       </c>
       <c r="C25">
-        <v>0.5843804093734946</v>
+        <v>0.5843804093739209</v>
       </c>
       <c r="D25">
-        <v>0.1506484738612954</v>
+        <v>0.1506484738617644</v>
       </c>
       <c r="E25">
-        <v>0.01499224530670706</v>
+        <v>0.01499224530669085</v>
       </c>
       <c r="F25">
-        <v>8.269569362002159</v>
+        <v>8.269569362002102</v>
       </c>
       <c r="G25">
-        <v>0.0008310690170255033</v>
+        <v>0.000831069017032614</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1392078156202814</v>
+        <v>0.1392078156201464</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2048067341196287</v>
+        <v>0.2048067341196003</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.367873928818767</v>
+        <v>3.36855324228037</v>
       </c>
       <c r="C2">
-        <v>0.4774521998716352</v>
+        <v>0.5965085129133172</v>
       </c>
       <c r="D2">
-        <v>0.1255088615332198</v>
+        <v>0.0319315624587162</v>
       </c>
       <c r="E2">
-        <v>0.0150076494475101</v>
+        <v>0.03253612833527697</v>
       </c>
       <c r="F2">
-        <v>7.242150058995236</v>
+        <v>1.123628737624372</v>
       </c>
       <c r="G2">
-        <v>0.0008488683517499148</v>
+        <v>0.903614526738167</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.005720941933809787</v>
       </c>
       <c r="J2">
-        <v>0.1295531710077356</v>
+        <v>0.624028580305108</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5510885343162784</v>
       </c>
       <c r="L2">
-        <v>0.1799128880633702</v>
+        <v>0.04932712476705348</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3428690847450753</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.972819489692768</v>
+        <v>2.935736609967876</v>
       </c>
       <c r="C3">
-        <v>0.4081948005733125</v>
+        <v>0.5202339395784747</v>
       </c>
       <c r="D3">
-        <v>0.1091333485441766</v>
+        <v>0.02974284369617308</v>
       </c>
       <c r="E3">
-        <v>0.01503452905445746</v>
+        <v>0.03264761265125227</v>
       </c>
       <c r="F3">
-        <v>6.577042659787992</v>
+        <v>1.078426162438447</v>
       </c>
       <c r="G3">
-        <v>0.0008611957438291693</v>
+        <v>0.8592764739276078</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.009268709658579954</v>
       </c>
       <c r="J3">
-        <v>0.1233400085140381</v>
+        <v>0.6112196187207672</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5519563700675292</v>
       </c>
       <c r="L3">
-        <v>0.1642261006246812</v>
+        <v>0.05068729221815005</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.3061922363408343</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.738877334034157</v>
+        <v>2.670509294052749</v>
       </c>
       <c r="C4">
-        <v>0.366905453896095</v>
+        <v>0.4738323572676961</v>
       </c>
       <c r="D4">
-        <v>0.09932679235990349</v>
+        <v>0.02843261053975255</v>
       </c>
       <c r="E4">
-        <v>0.01505828384994951</v>
+        <v>0.03273655750051674</v>
       </c>
       <c r="F4">
-        <v>6.18096447401436</v>
+        <v>1.052162686386673</v>
       </c>
       <c r="G4">
-        <v>0.0008689230894023456</v>
+        <v>0.8333699276417548</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01201616221454138</v>
       </c>
       <c r="J4">
-        <v>0.1196552705078382</v>
+        <v>0.6041440009026076</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5532143241911989</v>
       </c>
       <c r="L4">
-        <v>0.1550901125311981</v>
+        <v>0.05154983773084654</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2840570051850619</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.645463199160986</v>
+        <v>2.562517690705135</v>
       </c>
       <c r="C5">
-        <v>0.3503450918911426</v>
+        <v>0.455720825497707</v>
       </c>
       <c r="D5">
-        <v>0.09538265046381866</v>
+        <v>0.02795379669603193</v>
       </c>
       <c r="E5">
-        <v>0.01506967932453201</v>
+        <v>0.03276936302468236</v>
       </c>
       <c r="F5">
-        <v>6.022248585296637</v>
+        <v>1.04048944539602</v>
       </c>
       <c r="G5">
-        <v>0.0008721154858766234</v>
+        <v>0.8217686274525704</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01336044003812464</v>
       </c>
       <c r="J5">
-        <v>0.1181821748990792</v>
+        <v>0.6007558550095808</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5530530482811109</v>
       </c>
       <c r="L5">
-        <v>0.1514803030728444</v>
+        <v>0.05188563781104305</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2753743909641742</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.63006100210248</v>
+        <v>2.544586233451071</v>
       </c>
       <c r="C6">
-        <v>0.3476100609942705</v>
+        <v>0.4535800594902071</v>
       </c>
       <c r="D6">
-        <v>0.094730596077369</v>
+        <v>0.02793241868538487</v>
       </c>
       <c r="E6">
-        <v>0.01507167226403539</v>
+        <v>0.03276470234104423</v>
       </c>
       <c r="F6">
-        <v>5.996045343540885</v>
+        <v>1.03695541137796</v>
       </c>
       <c r="G6">
-        <v>0.0008726483038033792</v>
+        <v>0.8182083348370952</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.013707759526838</v>
       </c>
       <c r="J6">
-        <v>0.1179391714103524</v>
+        <v>0.5993579818994874</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5520028947242395</v>
       </c>
       <c r="L6">
-        <v>0.1508874211719444</v>
+        <v>0.05191442460671958</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2742413647797406</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.737610056904202</v>
+        <v>2.669034500637224</v>
       </c>
       <c r="C7">
-        <v>0.3666810965113427</v>
+        <v>0.47594619429114</v>
       </c>
       <c r="D7">
-        <v>0.09927340208429314</v>
+        <v>0.02858340955344474</v>
       </c>
       <c r="E7">
-        <v>0.01505843072001817</v>
+        <v>0.03270862999396495</v>
       </c>
       <c r="F7">
-        <v>6.178813590656972</v>
+        <v>1.04758784297244</v>
       </c>
       <c r="G7">
-        <v>0.0008689659626980503</v>
+        <v>0.8286972984718375</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01233138847774207</v>
       </c>
       <c r="J7">
-        <v>0.1196352938854801</v>
+        <v>0.6017866750167826</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5503900990910608</v>
       </c>
       <c r="L7">
-        <v>0.155040985363037</v>
+        <v>0.05148018626879924</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2847688172978877</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.229710426096347</v>
+        <v>3.219131815270202</v>
       </c>
       <c r="C8">
-        <v>0.4532870400408342</v>
+        <v>0.5732638540949893</v>
       </c>
       <c r="D8">
-        <v>0.1198045549319033</v>
+        <v>0.03137779661481233</v>
       </c>
       <c r="E8">
-        <v>0.01501534244770697</v>
+        <v>0.03253312517578166</v>
       </c>
       <c r="F8">
-        <v>7.010010916305617</v>
+        <v>1.101874851549056</v>
       </c>
       <c r="G8">
-        <v>0.0008530883014267338</v>
+        <v>0.8820580139985594</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.007167466285060264</v>
       </c>
       <c r="J8">
-        <v>0.1273811387943269</v>
+        <v>0.6163899536289819</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5475139782051848</v>
       </c>
       <c r="L8">
-        <v>0.1743938499828985</v>
+        <v>0.0496955286063665</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3312393923607146</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.276101126609035</v>
+        <v>4.30400428366471</v>
       </c>
       <c r="C9">
-        <v>0.6352811125021844</v>
+        <v>0.7639064846509882</v>
       </c>
       <c r="D9">
-        <v>0.1625656859301472</v>
+        <v>0.03686086440427516</v>
       </c>
       <c r="E9">
-        <v>0.01499425621933881</v>
+        <v>0.03240537076161498</v>
       </c>
       <c r="F9">
-        <v>8.758459336930173</v>
+        <v>1.229194574648787</v>
       </c>
       <c r="G9">
-        <v>0.0008230204191219891</v>
+        <v>1.006389088373055</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001485928857539065</v>
       </c>
       <c r="J9">
-        <v>0.1438241437017069</v>
+        <v>0.6559303254971098</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.553108308674723</v>
       </c>
       <c r="L9">
-        <v>0.2168771379204628</v>
+        <v>0.04654297612076563</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.4242582980752303</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.115839996942952</v>
+        <v>5.107620052478637</v>
       </c>
       <c r="C10">
-        <v>0.7803146839088981</v>
+        <v>0.9086642411276955</v>
       </c>
       <c r="D10">
-        <v>0.1963754710725425</v>
+        <v>0.04116809856098058</v>
       </c>
       <c r="E10">
-        <v>0.01502762489539189</v>
+        <v>0.03240495399021892</v>
       </c>
       <c r="F10">
-        <v>10.14937752792025</v>
+        <v>1.330141820264259</v>
       </c>
       <c r="G10">
-        <v>0.0008012747294942518</v>
+        <v>1.104287877385744</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.000949390694310992</v>
       </c>
       <c r="J10">
-        <v>0.1570297073345657</v>
+        <v>0.6887540823379652</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.5603203885588783</v>
       </c>
       <c r="L10">
-        <v>0.2518398902017225</v>
+        <v>0.04433276093605176</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.4955709583394423</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.519202966392925</v>
+        <v>5.475157338334611</v>
       </c>
       <c r="C11">
-        <v>0.8498495250504732</v>
+        <v>0.9795467599380174</v>
       </c>
       <c r="D11">
-        <v>0.2125164785385465</v>
+        <v>0.04343784441012133</v>
       </c>
       <c r="E11">
-        <v>0.01505645905537012</v>
+        <v>0.03238455382545524</v>
       </c>
       <c r="F11">
-        <v>10.81463497193522</v>
+        <v>1.371330809426851</v>
       </c>
       <c r="G11">
-        <v>0.0007913728712514613</v>
+        <v>1.143744532896861</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.00197227941100131</v>
       </c>
       <c r="J11">
-        <v>0.1633811861908754</v>
+        <v>0.7011926752517894</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5602209051524625</v>
       </c>
       <c r="L11">
-        <v>0.2688348007580714</v>
+        <v>0.04325386589400093</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.5300647076172424</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.675632186238829</v>
+        <v>5.614801059960314</v>
       </c>
       <c r="C12">
-        <v>0.8768066304427293</v>
+        <v>1.004422736286358</v>
       </c>
       <c r="D12">
-        <v>0.2187628474409706</v>
+        <v>0.04416712740582085</v>
       </c>
       <c r="E12">
-        <v>0.01506967550379645</v>
+        <v>0.03240441933637594</v>
       </c>
       <c r="F12">
-        <v>11.07219375060595</v>
+        <v>1.391165231495236</v>
       </c>
       <c r="G12">
-        <v>0.0007876132811894144</v>
+        <v>1.162994573815922</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002296186536047351</v>
       </c>
       <c r="J12">
-        <v>0.1658460909003026</v>
+        <v>0.7080953385037105</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.5627712537676501</v>
       </c>
       <c r="L12">
-        <v>0.2754556045548497</v>
+        <v>0.04290657384920493</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.5425038985041084</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.641767416058883</v>
+        <v>5.584728997163268</v>
       </c>
       <c r="C13">
-        <v>0.8709710340083632</v>
+        <v>0.9986266458033697</v>
       </c>
       <c r="D13">
-        <v>0.2174111690197975</v>
+        <v>0.04398184511531156</v>
       </c>
       <c r="E13">
-        <v>0.01506672070527415</v>
+        <v>0.03240477773386452</v>
       </c>
       <c r="F13">
-        <v>11.0164556506985</v>
+        <v>1.387647903325515</v>
       </c>
       <c r="G13">
-        <v>0.0007884235743391385</v>
+        <v>1.159623120872553</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002177304495706522</v>
       </c>
       <c r="J13">
-        <v>0.1653123880281981</v>
+        <v>0.707000482251317</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.5626968793232763</v>
       </c>
       <c r="L13">
-        <v>0.2740209450774955</v>
+        <v>0.0429923734592963</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.5396725994510376</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.5319947070235</v>
+        <v>5.486646489600503</v>
       </c>
       <c r="C14">
-        <v>0.8520540238309309</v>
+        <v>0.9814069430315726</v>
       </c>
       <c r="D14">
-        <v>0.2130275241930519</v>
+        <v>0.04348584670763955</v>
       </c>
       <c r="E14">
-        <v>0.01505749812510249</v>
+        <v>0.0323881545845115</v>
       </c>
       <c r="F14">
-        <v>10.83570526477598</v>
+        <v>1.373282518679801</v>
       </c>
       <c r="G14">
-        <v>0.0007910638224158928</v>
+        <v>1.145656661102009</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001977498743707784</v>
       </c>
       <c r="J14">
-        <v>0.163582712358135</v>
+        <v>0.7019267346625213</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.5606322318118444</v>
       </c>
       <c r="L14">
-        <v>0.2693756034743586</v>
+        <v>0.04322997167990472</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.5310232875141168</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.465255818470496</v>
+        <v>5.426580573329545</v>
       </c>
       <c r="C15">
-        <v>0.8405520851673316</v>
+        <v>0.9717292673570057</v>
       </c>
       <c r="D15">
-        <v>0.2103606973029883</v>
+        <v>0.04323795795198748</v>
       </c>
       <c r="E15">
-        <v>0.01505215955207606</v>
+        <v>0.03236899299426987</v>
       </c>
       <c r="F15">
-        <v>10.72575671006962</v>
+        <v>1.36301631517648</v>
       </c>
       <c r="G15">
-        <v>0.0007926794690374982</v>
+        <v>1.135594825807615</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001963012547418153</v>
       </c>
       <c r="J15">
-        <v>0.1625313534454875</v>
+        <v>0.6980565331550963</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.5584409843021945</v>
       </c>
       <c r="L15">
-        <v>0.266555256005617</v>
+        <v>0.04335398954330483</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.5260297608685107</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.089958839850794</v>
+        <v>5.083349962740044</v>
       </c>
       <c r="C16">
-        <v>0.7758512628680592</v>
+        <v>0.9111687660952157</v>
       </c>
       <c r="D16">
-        <v>0.1953379344067088</v>
+        <v>0.04148202304268267</v>
       </c>
       <c r="E16">
-        <v>0.01502604204545133</v>
+        <v>0.03232689436572134</v>
       </c>
       <c r="F16">
-        <v>10.10663411926416</v>
+        <v>1.31468636579126</v>
       </c>
       <c r="G16">
-        <v>0.0008019209476097386</v>
+        <v>1.08862868265301</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001613293838060414</v>
       </c>
       <c r="J16">
-        <v>0.1566223813568186</v>
+        <v>0.681311556808879</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.552314828479588</v>
       </c>
       <c r="L16">
-        <v>0.2507534768336228</v>
+        <v>0.04421468262388739</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.4957712001847483</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.865597587999048</v>
+        <v>4.873392368479927</v>
       </c>
       <c r="C17">
-        <v>0.737145073335455</v>
+        <v>0.8742539962599949</v>
       </c>
       <c r="D17">
-        <v>0.1863329714978619</v>
+        <v>0.04041610448277311</v>
       </c>
       <c r="E17">
-        <v>0.01501373069984535</v>
+        <v>0.03230778837384118</v>
       </c>
       <c r="F17">
-        <v>9.735782909351713</v>
+        <v>1.285761321049605</v>
       </c>
       <c r="G17">
-        <v>0.0008075822073859726</v>
+        <v>1.060500757958749</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001644421275242891</v>
       </c>
       <c r="J17">
-        <v>0.1530922761148261</v>
+        <v>0.671402609011551</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.548895259819723</v>
       </c>
       <c r="L17">
-        <v>0.2413573810344616</v>
+        <v>0.04475134933022584</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.4773780908753622</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.738518737457866</v>
+        <v>4.75291316166323</v>
       </c>
       <c r="C18">
-        <v>0.7152092141699029</v>
+        <v>0.8509492244020862</v>
       </c>
       <c r="D18">
-        <v>0.1812234367571648</v>
+        <v>0.03966692019392326</v>
       </c>
       <c r="E18">
-        <v>0.01500791070231577</v>
+        <v>0.03232343808419191</v>
       </c>
       <c r="F18">
-        <v>9.525473076441244</v>
+        <v>1.273246602629257</v>
       </c>
       <c r="G18">
-        <v>0.0008108381054466106</v>
+        <v>1.048521430808279</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001490245162743875</v>
       </c>
       <c r="J18">
-        <v>0.1510935365604382</v>
+        <v>0.6678410381696693</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5494708909948613</v>
       </c>
       <c r="L18">
-        <v>0.2360536187012912</v>
+        <v>0.04512037758286702</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.4661187419824415</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.695813193434162</v>
+        <v>4.712090814486032</v>
       </c>
       <c r="C19">
-        <v>0.707835139767667</v>
+        <v>0.8447324819881317</v>
       </c>
       <c r="D19">
-        <v>0.1795047592945593</v>
+        <v>0.03952193324591491</v>
       </c>
       <c r="E19">
-        <v>0.01500614783215704</v>
+        <v>0.0323104735091011</v>
       </c>
       <c r="F19">
-        <v>9.454753490764176</v>
+        <v>1.266066737093965</v>
       </c>
       <c r="G19">
-        <v>0.000811940679798983</v>
+        <v>1.041449270593588</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001648277128409426</v>
       </c>
       <c r="J19">
-        <v>0.1504219579258077</v>
+        <v>0.6651057202942212</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.5478156401604579</v>
       </c>
       <c r="L19">
-        <v>0.2342743585842015</v>
+        <v>0.04520170226306375</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.4628864535710306</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.889273500057186</v>
+        <v>4.895728008827689</v>
       </c>
       <c r="C20">
-        <v>0.7412308237253171</v>
+        <v>0.8780058672464577</v>
       </c>
       <c r="D20">
-        <v>0.1872841684054691</v>
+        <v>0.04051815312577389</v>
       </c>
       <c r="E20">
-        <v>0.01501490856917098</v>
+        <v>0.03231146854867184</v>
       </c>
       <c r="F20">
-        <v>9.774944377720402</v>
+        <v>1.289117525611204</v>
       </c>
       <c r="G20">
-        <v>0.0008069796458457499</v>
+        <v>1.06378083767521</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001611701246671871</v>
       </c>
       <c r="J20">
-        <v>0.1534647146286261</v>
+        <v>0.6726017624842342</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.5494368132545091</v>
       </c>
       <c r="L20">
-        <v>0.2423470086929314</v>
+        <v>0.04469835644106102</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.479271829824782</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.564132129406687</v>
+        <v>5.515332447502203</v>
       </c>
       <c r="C21">
-        <v>0.8575923991731713</v>
+        <v>0.9888780700227926</v>
       </c>
       <c r="D21">
-        <v>0.2143112458074512</v>
+        <v>0.04378776210895552</v>
       </c>
       <c r="E21">
-        <v>0.0150601415913828</v>
+        <v>0.03236600753261243</v>
       </c>
       <c r="F21">
-        <v>10.88863435375276</v>
+        <v>1.373161215892381</v>
       </c>
       <c r="G21">
-        <v>0.0007902886649489274</v>
+        <v>1.145313108808807</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002284675405204162</v>
       </c>
       <c r="J21">
-        <v>0.1640890472009531</v>
+        <v>0.7011651793762326</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.5585279103126055</v>
       </c>
       <c r="L21">
-        <v>0.2707347717955457</v>
+        <v>0.0430973522226088</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5343874414601402</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.027045450610785</v>
+        <v>5.922655124633309</v>
       </c>
       <c r="C22">
-        <v>0.9373599903119043</v>
+        <v>1.059127062512317</v>
       </c>
       <c r="D22">
-        <v>0.2327719802718207</v>
+        <v>0.04576490963727053</v>
       </c>
       <c r="E22">
-        <v>0.01510331565280321</v>
+        <v>0.03245840324607396</v>
       </c>
       <c r="F22">
-        <v>11.6499618292662</v>
+        <v>1.436115703299805</v>
       </c>
       <c r="G22">
-        <v>0.0007793167553873646</v>
+        <v>1.206634259787535</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.003251029334690791</v>
       </c>
       <c r="J22">
-        <v>0.1713871573987262</v>
+        <v>0.7239496833443013</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.569079657882277</v>
       </c>
       <c r="L22">
-        <v>0.2903848857133653</v>
+        <v>0.04215934137683952</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.5699553787201523</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.777744368877507</v>
+        <v>5.705173153136514</v>
       </c>
       <c r="C23">
-        <v>0.894402141119258</v>
+        <v>1.018633615508094</v>
       </c>
       <c r="D23">
-        <v>0.222836716019188</v>
+        <v>0.04451755456457107</v>
       </c>
       <c r="E23">
-        <v>0.01507889416017716</v>
+        <v>0.03243943157481688</v>
       </c>
       <c r="F23">
-        <v>11.24019534420933</v>
+        <v>1.407494802394368</v>
       </c>
       <c r="G23">
-        <v>0.0007851817629007662</v>
+        <v>1.179025156385677</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002368488922493306</v>
       </c>
       <c r="J23">
-        <v>0.1674556499657314</v>
+        <v>0.7143771909612155</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.5666007864415761</v>
       </c>
       <c r="L23">
-        <v>0.2797859170069756</v>
+        <v>0.04273295994147119</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5499177877837553</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.878563717363363</v>
+        <v>4.885808876955764</v>
       </c>
       <c r="C24">
-        <v>0.7393826773430874</v>
+        <v>0.8717530607048047</v>
       </c>
       <c r="D24">
-        <v>0.1868539237083411</v>
+        <v>0.0401760323253697</v>
       </c>
       <c r="E24">
-        <v>0.01501437215982604</v>
+        <v>0.03236103401455104</v>
       </c>
       <c r="F24">
-        <v>9.757230523115027</v>
+        <v>1.295799697553562</v>
       </c>
       <c r="G24">
-        <v>0.0008072520595434911</v>
+        <v>1.070694844773072</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001123211131029755</v>
       </c>
       <c r="J24">
-        <v>0.1532962400925655</v>
+        <v>0.6763192242590605</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.5543317933120591</v>
       </c>
       <c r="L24">
-        <v>0.241899294292125</v>
+        <v>0.04484364651490225</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.4768516686634285</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.982314369463381</v>
+        <v>4.009455007463885</v>
       </c>
       <c r="C25">
-        <v>0.5843804093739209</v>
+        <v>0.7161690751530045</v>
       </c>
       <c r="D25">
-        <v>0.1506484738617644</v>
+        <v>0.03563011067958399</v>
       </c>
       <c r="E25">
-        <v>0.01499224530669085</v>
+        <v>0.03237138455798672</v>
       </c>
       <c r="F25">
-        <v>8.269569362002102</v>
+        <v>1.185219357947574</v>
       </c>
       <c r="G25">
-        <v>0.000831069017032614</v>
+        <v>0.9631738631587154</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.002905626467987865</v>
       </c>
       <c r="J25">
-        <v>0.1392078156201464</v>
+        <v>0.6402772875460272</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5458252659389444</v>
       </c>
       <c r="L25">
-        <v>0.2048067341196003</v>
+        <v>0.04724853033578258</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.4001950460452406</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.36855324228037</v>
+        <v>3.375209349565466</v>
       </c>
       <c r="C2">
-        <v>0.5965085129133172</v>
+        <v>0.6514630023380334</v>
       </c>
       <c r="D2">
-        <v>0.0319315624587162</v>
+        <v>0.03690629747362806</v>
       </c>
       <c r="E2">
-        <v>0.03253612833527697</v>
+        <v>0.03089245914269334</v>
       </c>
       <c r="F2">
-        <v>1.123628737624372</v>
+        <v>0.9877938793125196</v>
       </c>
       <c r="G2">
-        <v>0.903614526738167</v>
+        <v>0.7530055918744409</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.005720941933809787</v>
+        <v>0.003789994758792936</v>
       </c>
       <c r="J2">
-        <v>0.624028580305108</v>
+        <v>0.577188586438254</v>
       </c>
       <c r="K2">
-        <v>0.5510885343162784</v>
+        <v>0.4554888633083607</v>
       </c>
       <c r="L2">
-        <v>0.04932712476705348</v>
+        <v>0.2074970557896556</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1382384125720897</v>
       </c>
       <c r="N2">
-        <v>0.3428690847450753</v>
+        <v>0.04461882707682285</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3679155882487777</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.935736609967876</v>
+        <v>2.941044086218199</v>
       </c>
       <c r="C3">
-        <v>0.5202339395784747</v>
+        <v>0.5637212952673849</v>
       </c>
       <c r="D3">
-        <v>0.02974284369617308</v>
+        <v>0.03417348269945819</v>
       </c>
       <c r="E3">
-        <v>0.03264761265125227</v>
+        <v>0.03110774225542912</v>
       </c>
       <c r="F3">
-        <v>1.078426162438447</v>
+        <v>0.9555888276149744</v>
       </c>
       <c r="G3">
-        <v>0.8592764739276078</v>
+        <v>0.7253993563654575</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.009268709658579954</v>
+        <v>0.006203088631712816</v>
       </c>
       <c r="J3">
-        <v>0.6112196187207672</v>
+        <v>0.5647825032853291</v>
       </c>
       <c r="K3">
-        <v>0.5519563700675292</v>
+        <v>0.462587706502152</v>
       </c>
       <c r="L3">
-        <v>0.05068729221815005</v>
+        <v>0.2131746711755547</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1389085513012098</v>
       </c>
       <c r="N3">
-        <v>0.3061922363408343</v>
+        <v>0.0458780813958376</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3276327462594963</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.670509294052749</v>
+        <v>2.674565068330594</v>
       </c>
       <c r="C4">
-        <v>0.4738323572676961</v>
+        <v>0.51041278141102</v>
       </c>
       <c r="D4">
-        <v>0.02843261053975255</v>
+        <v>0.03254259077227672</v>
       </c>
       <c r="E4">
-        <v>0.03273655750051674</v>
+        <v>0.03126015767270562</v>
       </c>
       <c r="F4">
-        <v>1.052162686386673</v>
+        <v>0.9368664131643953</v>
       </c>
       <c r="G4">
-        <v>0.8333699276417548</v>
+        <v>0.7096437262207189</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01201616221454138</v>
+        <v>0.008116648268332582</v>
       </c>
       <c r="J4">
-        <v>0.6041440009026076</v>
+        <v>0.5573809046627929</v>
       </c>
       <c r="K4">
-        <v>0.5532143241911989</v>
+        <v>0.4674385491287651</v>
       </c>
       <c r="L4">
-        <v>0.05154983773084654</v>
+        <v>0.2166796741778221</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1402207758531464</v>
       </c>
       <c r="N4">
-        <v>0.2840570051850619</v>
+        <v>0.04667703259552258</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.3033155895872142</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.562517690705135</v>
+        <v>2.565961863699727</v>
       </c>
       <c r="C5">
-        <v>0.455720825497707</v>
+        <v>0.4895081810169302</v>
       </c>
       <c r="D5">
-        <v>0.02795379669603193</v>
+        <v>0.03193638547399402</v>
       </c>
       <c r="E5">
-        <v>0.03276936302468236</v>
+        <v>0.03131999753897752</v>
       </c>
       <c r="F5">
-        <v>1.04048944539602</v>
+        <v>0.9283384219854938</v>
       </c>
       <c r="G5">
-        <v>0.8217686274525704</v>
+        <v>0.7023551762759865</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01336044003812464</v>
+        <v>0.009098119212878508</v>
       </c>
       <c r="J5">
-        <v>0.6007558550095808</v>
+        <v>0.5538023575587516</v>
       </c>
       <c r="K5">
-        <v>0.5530530482811109</v>
+        <v>0.4688437866101722</v>
       </c>
       <c r="L5">
-        <v>0.05188563781104305</v>
+        <v>0.2177907548800206</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1407816156365573</v>
       </c>
       <c r="N5">
-        <v>0.2753743909641742</v>
+        <v>0.04699413613137904</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2937397702344526</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.544586233451071</v>
+        <v>2.547917584727372</v>
       </c>
       <c r="C6">
-        <v>0.4535800594902071</v>
+        <v>0.4868903886488454</v>
       </c>
       <c r="D6">
-        <v>0.02793241868538487</v>
+        <v>0.03189396792006605</v>
       </c>
       <c r="E6">
-        <v>0.03276470234104423</v>
+        <v>0.03132131865779453</v>
       </c>
       <c r="F6">
-        <v>1.03695541137796</v>
+        <v>0.9255372462921443</v>
       </c>
       <c r="G6">
-        <v>0.8182083348370952</v>
+        <v>0.6997606834669767</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.013707759526838</v>
+        <v>0.009396487073457749</v>
       </c>
       <c r="J6">
-        <v>0.5993579818994874</v>
+        <v>0.552463081807943</v>
       </c>
       <c r="K6">
-        <v>0.5520028947242395</v>
+        <v>0.4682442276418826</v>
       </c>
       <c r="L6">
-        <v>0.05191442460671958</v>
+        <v>0.2175840988350188</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1406494448888491</v>
       </c>
       <c r="N6">
-        <v>0.2742413647797406</v>
+        <v>0.04702912906180157</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2924436241274293</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.669034500637224</v>
+        <v>2.673051303989666</v>
       </c>
       <c r="C7">
-        <v>0.47594619429114</v>
+        <v>0.5116176617181054</v>
       </c>
       <c r="D7">
-        <v>0.02858340955344474</v>
+        <v>0.03284388148356143</v>
       </c>
       <c r="E7">
-        <v>0.03270862999396495</v>
+        <v>0.03125702329053759</v>
       </c>
       <c r="F7">
-        <v>1.04758784297244</v>
+        <v>0.9307564010141505</v>
       </c>
       <c r="G7">
-        <v>0.8286972984718375</v>
+        <v>0.7085313450761674</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01233138847774207</v>
+        <v>0.008473085832839899</v>
       </c>
       <c r="J7">
-        <v>0.6017866750167826</v>
+        <v>0.5487076868927971</v>
       </c>
       <c r="K7">
-        <v>0.5503900990910608</v>
+        <v>0.4641552749636375</v>
       </c>
       <c r="L7">
-        <v>0.05148018626879924</v>
+        <v>0.2151833332793984</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.139261051596133</v>
       </c>
       <c r="N7">
-        <v>0.2847688172978877</v>
+        <v>0.04662126066988259</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3039454930329129</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.219131815270202</v>
+        <v>3.225318272678521</v>
       </c>
       <c r="C8">
-        <v>0.5732638540949893</v>
+        <v>0.6213877171609283</v>
       </c>
       <c r="D8">
-        <v>0.03137779661481233</v>
+        <v>0.03667609541317418</v>
       </c>
       <c r="E8">
-        <v>0.03253312517578166</v>
+        <v>0.03099883723134855</v>
       </c>
       <c r="F8">
-        <v>1.101874851549056</v>
+        <v>0.9642603713042064</v>
       </c>
       <c r="G8">
-        <v>0.8820580139985594</v>
+        <v>0.7476087346367422</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.007167466285060264</v>
+        <v>0.004946879112820213</v>
       </c>
       <c r="J8">
-        <v>0.6163899536289819</v>
+        <v>0.5486314471108926</v>
       </c>
       <c r="K8">
-        <v>0.5475139782051848</v>
+        <v>0.4515550899961376</v>
       </c>
       <c r="L8">
-        <v>0.0496955286063665</v>
+        <v>0.2067698285536821</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1362459167129337</v>
       </c>
       <c r="N8">
-        <v>0.3312393923607146</v>
+        <v>0.04495347071221845</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3548790679367357</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.30400428366471</v>
+        <v>4.310672639355687</v>
       </c>
       <c r="C9">
-        <v>0.7639064846509882</v>
+        <v>0.8405567162964189</v>
       </c>
       <c r="D9">
-        <v>0.03686086440427516</v>
+        <v>0.04374281549383596</v>
       </c>
       <c r="E9">
-        <v>0.03240537076161498</v>
+        <v>0.03062446203113822</v>
       </c>
       <c r="F9">
-        <v>1.229194574648787</v>
+        <v>1.053805033188326</v>
       </c>
       <c r="G9">
-        <v>1.006389088373055</v>
+        <v>0.8313266349334896</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.001485928857539065</v>
+        <v>0.001186084636336737</v>
       </c>
       <c r="J9">
-        <v>0.6559303254971098</v>
+        <v>0.5774266376533461</v>
       </c>
       <c r="K9">
-        <v>0.553108308674723</v>
+        <v>0.4387484151275913</v>
       </c>
       <c r="L9">
-        <v>0.04654297612076563</v>
+        <v>0.1938183121238026</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1401337131899574</v>
       </c>
       <c r="N9">
-        <v>0.4242582980752303</v>
+        <v>0.04201004091310989</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4570578517444943</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.107620052478637</v>
+        <v>5.111288108292001</v>
       </c>
       <c r="C10">
-        <v>0.9086642411276955</v>
+        <v>1.001702413011799</v>
       </c>
       <c r="D10">
-        <v>0.04116809856098058</v>
+        <v>0.05022580251561948</v>
       </c>
       <c r="E10">
-        <v>0.03240495399021892</v>
+        <v>0.03056549258837027</v>
       </c>
       <c r="F10">
-        <v>1.330141820264259</v>
+        <v>1.112100406140314</v>
       </c>
       <c r="G10">
-        <v>1.104287877385744</v>
+        <v>0.9160279440522885</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.000949390694310992</v>
+        <v>0.001205876479116519</v>
       </c>
       <c r="J10">
-        <v>0.6887540823379652</v>
+        <v>0.5626711088141576</v>
       </c>
       <c r="K10">
-        <v>0.5603203885588783</v>
+        <v>0.4258086642777101</v>
       </c>
       <c r="L10">
-        <v>0.04433276093605176</v>
+        <v>0.1821359107312226</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1452511540148791</v>
       </c>
       <c r="N10">
-        <v>0.4955709583394423</v>
+        <v>0.03991250249014511</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5349668718715748</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.475157338334611</v>
+        <v>5.476055834001158</v>
       </c>
       <c r="C11">
-        <v>0.9795467599380174</v>
+        <v>1.070902737249867</v>
       </c>
       <c r="D11">
-        <v>0.04343784441012133</v>
+        <v>0.0552447225089594</v>
       </c>
       <c r="E11">
-        <v>0.03238455382545524</v>
+        <v>0.03074990643154507</v>
       </c>
       <c r="F11">
-        <v>1.371330809426851</v>
+        <v>1.112533484267601</v>
       </c>
       <c r="G11">
-        <v>1.143744532896861</v>
+        <v>0.9814648065520259</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.00197227941100131</v>
+        <v>0.002305062000412583</v>
       </c>
       <c r="J11">
-        <v>0.7011926752517894</v>
+        <v>0.4947092567252867</v>
       </c>
       <c r="K11">
-        <v>0.5602209051524625</v>
+        <v>0.4078233830329978</v>
       </c>
       <c r="L11">
-        <v>0.04325386589400093</v>
+        <v>0.1725658193009671</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1433294903492168</v>
       </c>
       <c r="N11">
-        <v>0.5300647076172424</v>
+        <v>0.03885908556565576</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.5719904030641345</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.614801059960314</v>
+        <v>5.614416952048089</v>
       </c>
       <c r="C12">
-        <v>1.004422736286358</v>
+        <v>1.093982425408853</v>
       </c>
       <c r="D12">
-        <v>0.04416712740582085</v>
+        <v>0.05725866150989134</v>
       </c>
       <c r="E12">
-        <v>0.03240441933637594</v>
+        <v>0.03087637834001544</v>
       </c>
       <c r="F12">
-        <v>1.391165231495236</v>
+        <v>1.113412789255548</v>
       </c>
       <c r="G12">
-        <v>1.162994573815922</v>
+        <v>1.014277188147119</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.002296186536047351</v>
+        <v>0.002567907424180227</v>
       </c>
       <c r="J12">
-        <v>0.7080953385037105</v>
+        <v>0.4653425664008211</v>
       </c>
       <c r="K12">
-        <v>0.5627712537676501</v>
+        <v>0.4017979320886695</v>
       </c>
       <c r="L12">
-        <v>0.04290657384920493</v>
+        <v>0.1692618006404913</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1429605017959474</v>
       </c>
       <c r="N12">
-        <v>0.5425038985041084</v>
+        <v>0.03848602809709156</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.5853602070844488</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.584728997163268</v>
+        <v>5.584629080287925</v>
       </c>
       <c r="C13">
-        <v>0.9986266458033697</v>
+        <v>1.088634238217253</v>
       </c>
       <c r="D13">
-        <v>0.04398184511531156</v>
+        <v>0.05678293450713312</v>
       </c>
       <c r="E13">
-        <v>0.03240477773386452</v>
+        <v>0.03085161790891</v>
       </c>
       <c r="F13">
-        <v>1.387647903325515</v>
+        <v>1.113961702254926</v>
       </c>
       <c r="G13">
-        <v>1.159623120872553</v>
+        <v>1.007666821871084</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.002177304495706522</v>
+        <v>0.002454915297347426</v>
       </c>
       <c r="J13">
-        <v>0.707000482251317</v>
+        <v>0.4721242972783131</v>
       </c>
       <c r="K13">
-        <v>0.5626968793232763</v>
+        <v>0.4034899032005796</v>
       </c>
       <c r="L13">
-        <v>0.0429923734592963</v>
+        <v>0.170105140370076</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1432012357337591</v>
       </c>
       <c r="N13">
-        <v>0.5396725994510376</v>
+        <v>0.03857185495592497</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.5823379941606248</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.486646489600503</v>
+        <v>5.487443155553308</v>
       </c>
       <c r="C14">
-        <v>0.9814069430315726</v>
+        <v>1.072642051301898</v>
       </c>
       <c r="D14">
-        <v>0.04348584670763955</v>
+        <v>0.05539242091604279</v>
       </c>
       <c r="E14">
-        <v>0.0323881545845115</v>
+        <v>0.03076132118553243</v>
       </c>
       <c r="F14">
-        <v>1.373282518679801</v>
+        <v>1.112923525935273</v>
       </c>
       <c r="G14">
-        <v>1.145656661102009</v>
+        <v>0.984351784783982</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.001977498743707784</v>
+        <v>0.002302197772568348</v>
       </c>
       <c r="J14">
-        <v>0.7019267346625213</v>
+        <v>0.4925008332431844</v>
       </c>
       <c r="K14">
-        <v>0.5606322318118444</v>
+        <v>0.4074976745806822</v>
       </c>
       <c r="L14">
-        <v>0.04322997167990472</v>
+        <v>0.17235125782409</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1433681285972881</v>
       </c>
       <c r="N14">
-        <v>0.5310232875141168</v>
+        <v>0.03883076240542827</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.5730296392410139</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.426580573329545</v>
+        <v>5.427900494732057</v>
       </c>
       <c r="C15">
-        <v>0.9717292673570057</v>
+        <v>1.063548258240019</v>
       </c>
       <c r="D15">
-        <v>0.04323795795198748</v>
+        <v>0.05463344502351219</v>
       </c>
       <c r="E15">
-        <v>0.03236899299426987</v>
+        <v>0.03070273657027478</v>
       </c>
       <c r="F15">
-        <v>1.36301631517648</v>
+        <v>1.110717341647003</v>
       </c>
       <c r="G15">
-        <v>1.135594825807615</v>
+        <v>0.9693887127150305</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.001963012547418153</v>
+        <v>0.002329338899023981</v>
       </c>
       <c r="J15">
-        <v>0.6980565331550963</v>
+        <v>0.5038141923612898</v>
       </c>
       <c r="K15">
-        <v>0.5584409843021945</v>
+        <v>0.4091213902046604</v>
       </c>
       <c r="L15">
-        <v>0.04335398954330483</v>
+        <v>0.1734464520863881</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1431366242606416</v>
       </c>
       <c r="N15">
-        <v>0.5260297608685107</v>
+        <v>0.03897814376615438</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.5676111818001317</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.083349962740044</v>
+        <v>5.087196247935481</v>
       </c>
       <c r="C16">
-        <v>0.9111687660952157</v>
+        <v>1.004087062477652</v>
       </c>
       <c r="D16">
-        <v>0.04148202304268267</v>
+        <v>0.05040966582311768</v>
       </c>
       <c r="E16">
-        <v>0.03232689436572134</v>
+        <v>0.03048988007314613</v>
       </c>
       <c r="F16">
-        <v>1.31468636579126</v>
+        <v>1.101090328316005</v>
       </c>
       <c r="G16">
-        <v>1.08862868265301</v>
+        <v>0.9013695031629823</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.001613293838060414</v>
+        <v>0.002005007144015636</v>
       </c>
       <c r="J16">
-        <v>0.681311556808879</v>
+        <v>0.5610844636158703</v>
       </c>
       <c r="K16">
-        <v>0.552314828479588</v>
+        <v>0.4208010198516163</v>
       </c>
       <c r="L16">
-        <v>0.04421468262388739</v>
+        <v>0.1805803130921042</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1429162007410092</v>
       </c>
       <c r="N16">
-        <v>0.4957712001847483</v>
+        <v>0.03988402767107024</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.534884177793046</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.873392368479927</v>
+        <v>4.878416701389199</v>
       </c>
       <c r="C17">
-        <v>0.8742539962599949</v>
+        <v>0.9658510343716955</v>
       </c>
       <c r="D17">
-        <v>0.04041610448277311</v>
+        <v>0.04822644170590706</v>
       </c>
       <c r="E17">
-        <v>0.03230778837384118</v>
+        <v>0.03041736278073159</v>
       </c>
       <c r="F17">
-        <v>1.285761321049605</v>
+        <v>1.090956653476454</v>
       </c>
       <c r="G17">
-        <v>1.060500757958749</v>
+        <v>0.8672974941593594</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.001644421275242891</v>
+        <v>0.001977176252117907</v>
       </c>
       <c r="J17">
-        <v>0.671402609011551</v>
+        <v>0.5849072660169838</v>
       </c>
       <c r="K17">
-        <v>0.548895259819723</v>
+        <v>0.4261664064354456</v>
       </c>
       <c r="L17">
-        <v>0.04475134933022584</v>
+        <v>0.1843447161768204</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1421935607205178</v>
       </c>
       <c r="N17">
-        <v>0.4773780908753622</v>
+        <v>0.04043242332933683</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.5148814770507784</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.75291316166323</v>
+        <v>4.75848364437212</v>
       </c>
       <c r="C18">
-        <v>0.8509492244020862</v>
+        <v>0.9411045834221454</v>
       </c>
       <c r="D18">
-        <v>0.03966692019392326</v>
+        <v>0.04696519840435087</v>
       </c>
       <c r="E18">
-        <v>0.03232343808419191</v>
+        <v>0.03041569781654818</v>
       </c>
       <c r="F18">
-        <v>1.273246602629257</v>
+        <v>1.086877119591335</v>
       </c>
       <c r="G18">
-        <v>1.048521430808279</v>
+        <v>0.8535666646723286</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.001490245162743875</v>
+        <v>0.001714145718814564</v>
       </c>
       <c r="J18">
-        <v>0.6678410381696693</v>
+        <v>0.595730391831097</v>
       </c>
       <c r="K18">
-        <v>0.5494708909948613</v>
+        <v>0.430457912416724</v>
       </c>
       <c r="L18">
-        <v>0.04512037758286702</v>
+        <v>0.1869496340400865</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1423016364219833</v>
       </c>
       <c r="N18">
-        <v>0.4661187419824415</v>
+        <v>0.04077488130462326</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.5026982736778223</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.712090814486032</v>
+        <v>4.717830021555358</v>
       </c>
       <c r="C19">
-        <v>0.8447324819881317</v>
+        <v>0.9342708296960609</v>
       </c>
       <c r="D19">
-        <v>0.03952193324591491</v>
+        <v>0.04667103924668936</v>
       </c>
       <c r="E19">
-        <v>0.0323104735091011</v>
+        <v>0.03040252679221922</v>
       </c>
       <c r="F19">
-        <v>1.266066737093965</v>
+        <v>1.082737766558267</v>
       </c>
       <c r="G19">
-        <v>1.041449270593588</v>
+        <v>0.8468073850041975</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.001648277128409426</v>
+        <v>0.001869870805158769</v>
       </c>
       <c r="J19">
-        <v>0.6651057202942212</v>
+        <v>0.5973047190457805</v>
       </c>
       <c r="K19">
-        <v>0.5478156401604579</v>
+        <v>0.4303690088942815</v>
       </c>
       <c r="L19">
-        <v>0.04520170226306375</v>
+        <v>0.1872704220082753</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1417490894868543</v>
       </c>
       <c r="N19">
-        <v>0.4628864535710306</v>
+        <v>0.04086701393159631</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.4991223831291052</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.895728008827689</v>
+        <v>4.900639719313972</v>
       </c>
       <c r="C20">
-        <v>0.8780058672464577</v>
+        <v>0.969818066361654</v>
       </c>
       <c r="D20">
-        <v>0.04051815312577389</v>
+        <v>0.04843307284709653</v>
       </c>
       <c r="E20">
-        <v>0.03231146854867184</v>
+        <v>0.03042463368981263</v>
       </c>
       <c r="F20">
-        <v>1.289117525611204</v>
+        <v>1.092446133487485</v>
       </c>
       <c r="G20">
-        <v>1.06378083767521</v>
+        <v>0.8709107032349976</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.001611701246671871</v>
+        <v>0.001949243895747799</v>
       </c>
       <c r="J20">
-        <v>0.6726017624842342</v>
+        <v>0.5829651699775411</v>
       </c>
       <c r="K20">
-        <v>0.5494368132545091</v>
+        <v>0.4258075822317942</v>
       </c>
       <c r="L20">
-        <v>0.04469835644106102</v>
+        <v>0.184020197910673</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1423481759017484</v>
       </c>
       <c r="N20">
-        <v>0.479271829824782</v>
+        <v>0.04037667855968297</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5169525169573177</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.515332447502203</v>
+        <v>5.515695921356439</v>
       </c>
       <c r="C21">
-        <v>0.9888780700227926</v>
+        <v>1.076522523305982</v>
       </c>
       <c r="D21">
-        <v>0.04378776210895552</v>
+        <v>0.05658074964804882</v>
       </c>
       <c r="E21">
-        <v>0.03236600753261243</v>
+        <v>0.03084458244098442</v>
       </c>
       <c r="F21">
-        <v>1.373161215892381</v>
+        <v>1.102083090663385</v>
       </c>
       <c r="G21">
-        <v>1.145313108808807</v>
+        <v>0.9983567454380307</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.002284675405204162</v>
+        <v>0.00264382284720277</v>
       </c>
       <c r="J21">
-        <v>0.7011651793762326</v>
+        <v>0.4657094015126546</v>
       </c>
       <c r="K21">
-        <v>0.5585279103126055</v>
+        <v>0.4010459628908407</v>
       </c>
       <c r="L21">
-        <v>0.0430973522226088</v>
+        <v>0.1698892875946747</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.141144668882589</v>
       </c>
       <c r="N21">
-        <v>0.5343874414601402</v>
+        <v>0.03869685369447895</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.5764042080699028</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.922655124633309</v>
+        <v>5.919018170902802</v>
       </c>
       <c r="C22">
-        <v>1.059127062512317</v>
+        <v>1.142528431983976</v>
       </c>
       <c r="D22">
-        <v>0.04576490963727053</v>
+        <v>0.06217993488333917</v>
       </c>
       <c r="E22">
-        <v>0.03245840324607396</v>
+        <v>0.03123047268501455</v>
       </c>
       <c r="F22">
-        <v>1.436115703299805</v>
+        <v>1.111269064227002</v>
       </c>
       <c r="G22">
-        <v>1.206634259787535</v>
+        <v>1.096401049942173</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.003251029334690791</v>
+        <v>0.003287518024889025</v>
       </c>
       <c r="J22">
-        <v>0.7239496833443013</v>
+        <v>0.3946056754398342</v>
       </c>
       <c r="K22">
-        <v>0.569079657882277</v>
+        <v>0.3869856818486213</v>
       </c>
       <c r="L22">
-        <v>0.04215934137683952</v>
+        <v>0.161564392800301</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1415648896090538</v>
       </c>
       <c r="N22">
-        <v>0.5699553787201523</v>
+        <v>0.03766597060757082</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.614743879364454</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.705173153136514</v>
+        <v>5.703883729108384</v>
       </c>
       <c r="C23">
-        <v>1.018633615508094</v>
+        <v>1.106731280409974</v>
       </c>
       <c r="D23">
-        <v>0.04451755456457107</v>
+        <v>0.05850347547372792</v>
       </c>
       <c r="E23">
-        <v>0.03243943157481688</v>
+        <v>0.03098752258108917</v>
       </c>
       <c r="F23">
-        <v>1.407494802394368</v>
+        <v>1.11603138527073</v>
       </c>
       <c r="G23">
-        <v>1.179025156385677</v>
+        <v>1.039902536976228</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.002368488922493306</v>
+        <v>0.002545928905035133</v>
       </c>
       <c r="J23">
-        <v>0.7143771909612155</v>
+        <v>0.4463852261281147</v>
       </c>
       <c r="K23">
-        <v>0.5666007864415761</v>
+        <v>0.3991486036693246</v>
       </c>
       <c r="L23">
-        <v>0.04273295994147119</v>
+        <v>0.1675577984348102</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.143252596717133</v>
       </c>
       <c r="N23">
-        <v>0.5499177877837553</v>
+        <v>0.03826783087386931</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.5933864888092302</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.885808876955764</v>
+        <v>4.890758183244486</v>
       </c>
       <c r="C24">
-        <v>0.8717530607048047</v>
+        <v>0.963507079484117</v>
       </c>
       <c r="D24">
-        <v>0.0401760323253697</v>
+        <v>0.04803555566537199</v>
       </c>
       <c r="E24">
-        <v>0.03236103401455104</v>
+        <v>0.03046477429477878</v>
       </c>
       <c r="F24">
-        <v>1.295799697553562</v>
+        <v>1.098640316028039</v>
       </c>
       <c r="G24">
-        <v>1.070694844773072</v>
+        <v>0.8762514994362505</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.001123211131029755</v>
+        <v>0.001358632236566848</v>
       </c>
       <c r="J24">
-        <v>0.6763192242590605</v>
+        <v>0.5873343349767595</v>
       </c>
       <c r="K24">
-        <v>0.5543317933120591</v>
+        <v>0.4298860657507788</v>
       </c>
       <c r="L24">
-        <v>0.04484364651490225</v>
+        <v>0.1855763179728029</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.143815432647731</v>
       </c>
       <c r="N24">
-        <v>0.4768516686634285</v>
+        <v>0.04046525366752596</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5145227686508917</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.009455007463885</v>
+        <v>4.016528948546409</v>
       </c>
       <c r="C25">
-        <v>0.7161690751530045</v>
+        <v>0.786181043230556</v>
       </c>
       <c r="D25">
-        <v>0.03563011067958399</v>
+        <v>0.0418536246652863</v>
       </c>
       <c r="E25">
-        <v>0.03237138455798672</v>
+        <v>0.03063565347413011</v>
       </c>
       <c r="F25">
-        <v>1.185219357947574</v>
+        <v>1.024796375333835</v>
       </c>
       <c r="G25">
-        <v>0.9631738631587154</v>
+        <v>0.7964949692168801</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.002905626467987865</v>
+        <v>0.002299427183481306</v>
       </c>
       <c r="J25">
-        <v>0.6402772875460272</v>
+        <v>0.5750562648345579</v>
       </c>
       <c r="K25">
-        <v>0.5458252659389444</v>
+        <v>0.4391909856148679</v>
       </c>
       <c r="L25">
-        <v>0.04724853033578258</v>
+        <v>0.1963215162555407</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1373331771059725</v>
       </c>
       <c r="N25">
-        <v>0.4001950460452406</v>
+        <v>0.04272785518348354</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4304744152689324</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
